--- a/02_MasterWifoMannheim/03_Courses/Course59.xlsx
+++ b/02_MasterWifoMannheim/03_Courses/Course59.xlsx
@@ -1,37 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05905DB9B3611597540316743FA74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9A0295-7551-46AA-9516-AAE2893652A6}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>ACC 680 Disclosure Theory</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>The aim of this course is to provide students with an insight into analytical disclosure theory, one important stream of literature in accounting research. The overview provides insights what shapes firms’ reporting decisions.</t>
+  </si>
+  <si>
+    <t>Learning outcomes</t>
+  </si>
+  <si>
+    <t>Students are able to assess and discuss the setting, basic assumptions, and mechanisms of disclosure models. disclosure models.</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Accounting and Taxation (AAT)</t>
+  </si>
+  <si>
+    <t>Not Taken</t>
+  </si>
+  <si>
+    <t>ACC 675</t>
+  </si>
+  <si>
+    <t>Benötigte Kurse</t>
+  </si>
+  <si>
+    <t>Obligatory registrationFurther Information on registration</t>
+  </si>
+  <si>
+    <t>Courses Hours per week Self-study Lecture 2 10</t>
+  </si>
+  <si>
+    <t>ECTS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Form of assessment</t>
+  </si>
+  <si>
+    <t>Written Report (50%), Presentation (50%)</t>
+  </si>
+  <si>
+    <t>Preliminary course work -</t>
+  </si>
+  <si>
+    <t>Lecturer/Person in charge</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Dirk Simons</t>
+  </si>
+  <si>
+    <t>Duration of module</t>
+  </si>
+  <si>
+    <t>1 semester</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Program-specific educational goals</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded</t>
+  </si>
+  <si>
+    <t>Range of application</t>
+  </si>
+  <si>
+    <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
+  </si>
+  <si>
+    <t>ACC 5|</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +154,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,225 +478,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACC 680 Disclosure Theory</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Contents</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>The aim of this course is to provide students with an insight into analytical disclosure theory, one important stream of literature in accounting research. The overview provides insights what shapes firms’ reporting decisions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Learning outcomes</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Students are able to assess and discuss the setting, basic assumptions, and mechanisms of disclosure models. disclosure models.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Prerequisites</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Accounting and Taxation (AAT)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Not Taken</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ACC 675</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Benötigte Kurse</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ACC 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Obligatory registrationFurther Information on registration</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Courses Hours per week Self-study Lecture 2 10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ECTS</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Form of assessment</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Written Report (50%), Presentation (50%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Preliminary course work -</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Lecturer/Person in charge</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Prof. Dr. Dirk Simons</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Duration of module</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1 semester</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Offering</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SSS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Language</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>English</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Program-specific educational goals</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Grade</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>graded</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Range of application</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>M.Sc. MMM, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ., LL.M.</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
